--- a/Excel Files/Scenario 13/TC035/13.0 - TC35 - Contract Parts Info.xlsx
+++ b/Excel Files/Scenario 13/TC035/13.0 - TC35 - Contract Parts Info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-syazwan\Excel Files\Scenario 13\TC035\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC035\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{5E0D4F66-2CA6-4227-9BA3-6C8C4866B9D8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{2C39C74F-F049-4EC8-A3E5-BA3B9AF35717}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView tabRatio="729" windowHeight="12456" windowWidth="23256" xWindow="-23148" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView tabRatio="729" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Request Contract Detail" r:id="rId1" sheetId="11"/>
@@ -42,17 +42,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
-  <si>
-    <t>Upload Contract Part Info File</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
   <si>
     <t>Basic Information</t>
   </si>
   <si>
-    <t>Working No</t>
-  </si>
-  <si>
     <t>Working Type</t>
   </si>
   <si>
@@ -123,7 +117,7 @@
   </si>
   <si>
     <t>End User 1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>End User 2</t>
@@ -162,9 +156,6 @@
     <t>by currency</t>
   </si>
   <si>
-    <t>PK-CUS-POC</t>
-  </si>
-  <si>
     <t>PC</t>
   </si>
   <si>
@@ -288,43 +279,40 @@
     <t>CNY2</t>
   </si>
   <si>
-    <t>R-PK-CUS-POC-2309005</t>
-  </si>
-  <si>
-    <t>CNTWSUP-PKCUS-TB4-004</t>
-  </si>
-  <si>
-    <t>PK-CUS-TB8-scenario13-20230604-001</t>
-  </si>
-  <si>
-    <t>PK-CUS-TB8-scenario13-20230604-002</t>
-  </si>
-  <si>
-    <t>PK-CUS-TB8-scenario13-20230604-003</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TB8-scenario13-20230604-001</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TB8-scenario13-20230604-002</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TB8-scenario13-20230604-003</t>
-  </si>
-  <si>
-    <t>TB8scenario1320230614011</t>
-  </si>
-  <si>
-    <t>TB8scenario1320230614012</t>
-  </si>
-  <si>
-    <t>TB8scenario1320230614013</t>
-  </si>
-  <si>
-    <t>R-PK-CUS-POC-2310039</t>
-  </si>
-  <si>
-    <t>CNTWSUP-PKCUS-TB8-008</t>
+    <t>PK-CUS-POC-S13-5</t>
+  </si>
+  <si>
+    <t>R-PK-CUS-POC-S13-5-2311001</t>
+  </si>
+  <si>
+    <t>CNTWSUP-PKCUS-TBA-010</t>
+  </si>
+  <si>
+    <t>TBAscenario1320230614011</t>
+  </si>
+  <si>
+    <t>TBAscenario1320230614012</t>
+  </si>
+  <si>
+    <t>TBAscenario1320230614013</t>
+  </si>
+  <si>
+    <t>PK-CUS-TBA-scenario13-20230604-001</t>
+  </si>
+  <si>
+    <t>PK-CUS-TBA-scenario13-20230604-002</t>
+  </si>
+  <si>
+    <t>PK-CUS-TBA-scenario13-20230604-003</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TBA-scenario13-20230604-001</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TBA-scenario13-20230604-002</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TBA-scenario13-20230604-003</t>
   </si>
 </sst>
 </file>
@@ -338,7 +326,7 @@
     <numFmt numFmtId="167" formatCode="0;[Red]0"/>
     <numFmt numFmtId="168" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,12 +337,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -406,7 +388,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,8 +443,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -511,14 +499,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
@@ -530,10 +531,7 @@
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="2">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0">
@@ -548,13 +546,10 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
@@ -566,7 +561,7 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0">
@@ -581,19 +576,19 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="1" numFmtId="9" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="5" numFmtId="3" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="3" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="5" numFmtId="165" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="5" numFmtId="4" xfId="0">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="4" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="1" numFmtId="167" xfId="0">
@@ -605,11 +600,17 @@
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="9" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="9" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="9" fontId="1" numFmtId="49" xfId="0">
-      <alignment horizontal="left"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="10" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="10" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="10" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="10" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -929,7 +930,7 @@
   <dimension ref="B2:AA15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D13" sqref="D13:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -937,7 +938,7 @@
     <col min="1" max="1" customWidth="true" style="1" width="1.77734375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="1" width="45.21875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="1" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="33.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="48.44140625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="1" width="37.6640625" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="1" width="57.33203125" collapsed="true"/>
     <col min="7" max="8" customWidth="true" style="1" width="25.77734375" collapsed="true"/>
@@ -956,485 +957,482 @@
     <col min="27" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row ht="21" r="2" spans="2:26">
-      <c r="B2" s="2" t="s">
+    <row ht="14.4" r="2" spans="2:26">
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:26">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:26">
+      <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:26">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="2:26">
-      <c r="B4" s="4" t="s">
+    <row r="6" spans="2:26">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:26">
-      <c r="B5" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="2:26">
-      <c r="B6" s="11" t="s">
+    </row>
+    <row customHeight="1" ht="26.1" r="7" spans="2:26">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.1" r="7" spans="2:26">
-      <c r="B7" s="11" t="s">
+    <row customHeight="1" ht="16.2" r="10" spans="2:26">
+      <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="9" spans="2:26">
-      <c r="B9" s="4" t="s">
+      <c r="C10" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row customHeight="1" ht="16.2" r="10" spans="2:26">
-      <c r="B10" s="13" t="s">
+      <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="I10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="J10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="K10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="L10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="M10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="N10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="O10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="N10" s="14" t="s">
+      <c r="P10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="14" t="s">
+      <c r="Q10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="P10" s="14" t="s">
+      <c r="R10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="14" t="s">
+      <c r="S10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="14" t="s">
+      <c r="T10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S10" s="14" t="s">
+      <c r="U10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T10" s="14" t="s">
+      <c r="V10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="U10" s="16" t="s">
+      <c r="W10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="V10" s="16" t="s">
+      <c r="X10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="W10" s="16" t="s">
+      <c r="Y10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="X10" s="16" t="s">
+      <c r="Z10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Y10" s="16" t="s">
+    </row>
+    <row r="11" spans="2:26">
+      <c r="B11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="Z10" s="16" t="s">
+      <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="2:26">
-      <c r="B11" s="17" t="s">
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="J11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26">
+      <c r="B12" s="15">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4">
+        <v>30</v>
+      </c>
+      <c r="D12" s="5">
+        <v>36</v>
+      </c>
+      <c r="E12" s="5">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5">
+        <v>255</v>
+      </c>
+      <c r="G12" s="6">
+        <v>20</v>
+      </c>
+      <c r="H12" s="7">
+        <v>30</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="K12" s="6">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="W11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="X11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26">
-      <c r="B12" s="17">
+      <c r="N12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T12" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5">
-        <v>30</v>
-      </c>
-      <c r="D12" s="6">
-        <v>36</v>
-      </c>
-      <c r="E12" s="6">
-        <v>36</v>
-      </c>
-      <c r="F12" s="6">
-        <v>255</v>
-      </c>
-      <c r="G12" s="7">
-        <v>20</v>
-      </c>
-      <c r="H12" s="8">
-        <v>30</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="7">
-        <v>3</v>
-      </c>
-      <c r="L12" s="6">
-        <v>3</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="N12" s="6" t="s">
+      <c r="U12" s="7">
+        <v>100</v>
+      </c>
+      <c r="V12" s="7">
+        <v>100</v>
+      </c>
+      <c r="W12" s="7">
+        <v>100</v>
+      </c>
+      <c r="X12" s="7">
+        <v>100</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row ht="14.4" r="13" spans="2:26">
+      <c r="B13" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="25" t="str">
+        <f>D13</f>
+        <v>CNTW-SUP-TBA-scenario13-20230604-001</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="L13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="M13" s="18">
+        <v>1</v>
+      </c>
+      <c r="N13" s="19">
+        <v>10</v>
+      </c>
+      <c r="O13" s="20">
+        <v>10</v>
+      </c>
+      <c r="P13" s="20">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R13" s="22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T13" s="23">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="24"/>
+    </row>
+    <row ht="14.4" r="14" spans="2:26">
+      <c r="B14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="25" t="str">
+        <f ref="F14:F15" si="0" t="shared">D14</f>
+        <v>CNTW-SUP-TBA-scenario13-20230604-002</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="6" t="s">
+      <c r="L14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="6" t="s">
+      <c r="M14" s="18">
+        <v>1</v>
+      </c>
+      <c r="N14" s="19">
+        <v>10</v>
+      </c>
+      <c r="O14" s="20">
+        <v>10</v>
+      </c>
+      <c r="P14" s="20">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R14" s="22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T14" s="23">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="24"/>
+    </row>
+    <row ht="14.4" r="15" spans="2:26">
+      <c r="B15" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="25" t="str">
+        <f si="0" t="shared"/>
+        <v>CNTW-SUP-TBA-scenario13-20230604-003</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="L15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="M15" s="18">
+        <v>1</v>
+      </c>
+      <c r="N15" s="19">
+        <v>10</v>
+      </c>
+      <c r="O15" s="20">
+        <v>10</v>
+      </c>
+      <c r="P15" s="20">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R15" s="22">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="S15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="U12" s="8">
-        <v>100</v>
-      </c>
-      <c r="V12" s="8">
-        <v>100</v>
-      </c>
-      <c r="W12" s="8">
-        <v>100</v>
-      </c>
-      <c r="X12" s="8">
-        <v>100</v>
-      </c>
-      <c r="Y12" s="8">
-        <v>100</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row ht="26.4" r="13" spans="2:26">
-      <c r="B13" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" s="27" t="str">
-        <f>D13</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-001</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="20">
-        <v>1</v>
-      </c>
-      <c r="N13" s="21">
-        <v>10</v>
-      </c>
-      <c r="O13" s="22">
-        <v>10</v>
-      </c>
-      <c r="P13" s="22">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Q13" s="23">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="R13" s="24">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="S13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T13" s="25">
+      <c r="T15" s="23">
         <v>2.0499999999999998</v>
       </c>
-      <c r="U13" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="X13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y13" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z13" s="26"/>
-    </row>
-    <row ht="26.4" r="14" spans="2:26">
-      <c r="B14" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="27" t="str">
-        <f ref="F14:F15" si="0" t="shared">D14</f>
-        <v>CNTW-SUP-TB8-scenario13-20230604-002</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>93</v>
-      </c>
-      <c r="I14" s="19">
-        <v>1</v>
-      </c>
-      <c r="J14" s="19">
-        <v>1</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="20">
-        <v>1</v>
-      </c>
-      <c r="N14" s="21">
-        <v>10</v>
-      </c>
-      <c r="O14" s="22">
-        <v>10</v>
-      </c>
-      <c r="P14" s="22">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Q14" s="23">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="R14" s="24">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="S14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T14" s="25">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="26"/>
-    </row>
-    <row ht="26.4" r="15" spans="2:26">
-      <c r="B15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="27" t="str">
-        <f si="0" t="shared"/>
-        <v>CNTW-SUP-TB8-scenario13-20230604-003</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>93</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="20">
-        <v>1</v>
-      </c>
-      <c r="N15" s="21">
-        <v>10</v>
-      </c>
-      <c r="O15" s="22">
-        <v>10</v>
-      </c>
-      <c r="P15" s="22">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="R15" s="24">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="S15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="T15" s="25">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="26"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="24"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="S13:S15" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>CURRENCY_CODE</formula1>
@@ -1455,151 +1453,151 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1614,88 +1612,88 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1837,18 +1835,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB53D248-350C-4EA0-9F9E-8CDF559DF7E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD1BC0B-6289-4542-92AA-4CF4C1E6C5B8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD1BC0B-6289-4542-92AA-4CF4C1E6C5B8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB53D248-350C-4EA0-9F9E-8CDF559DF7E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Excel Files/Scenario 13/TC035/13.0 - TC35 - Contract Parts Info.xlsx
+++ b/Excel Files/Scenario 13/TC035/13.0 - TC35 - Contract Parts Info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC035\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{2C39C74F-F049-4EC8-A3E5-BA3B9AF35717}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{CD2002F6-54E3-4E2B-904C-704BE424FC7D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView tabRatio="729" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
   <si>
     <t>Basic Information</t>
   </si>
@@ -288,31 +288,34 @@
     <t>CNTWSUP-PKCUS-TBA-010</t>
   </si>
   <si>
-    <t>TBAscenario1320230614011</t>
-  </si>
-  <si>
-    <t>TBAscenario1320230614012</t>
-  </si>
-  <si>
-    <t>TBAscenario1320230614013</t>
-  </si>
-  <si>
-    <t>PK-CUS-TBA-scenario13-20230604-001</t>
-  </si>
-  <si>
-    <t>PK-CUS-TBA-scenario13-20230604-002</t>
-  </si>
-  <si>
-    <t>PK-CUS-TBA-scenario13-20230604-003</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TBA-scenario13-20230604-001</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TBA-scenario13-20230604-002</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TBA-scenario13-20230604-003</t>
+    <t>PK-CUS-TS1-scenario13-20230604-001</t>
+  </si>
+  <si>
+    <t>PK-CUS-TS1-scenario13-20230604-002</t>
+  </si>
+  <si>
+    <t>PK-CUS-TS1-scenario13-20230604-003</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TS1-scenario13-20230604-001</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TS1-scenario13-20230604-002</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TS1-scenario13-20230604-003</t>
+  </si>
+  <si>
+    <t>TS1scenario1320230614011</t>
+  </si>
+  <si>
+    <t>TS1scenario1320230614012</t>
+  </si>
+  <si>
+    <t>TS1scenario1320230614013</t>
+  </si>
+  <si>
+    <t>CNTWSUP-PKCUS-TS1-01</t>
   </si>
 </sst>
 </file>
@@ -930,7 +933,7 @@
   <dimension ref="B2:AA15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="D13" sqref="D13:D15"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -1225,26 +1228,26 @@
     </row>
     <row ht="14.4" r="13" spans="2:26">
       <c r="B13" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>79</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="28" t="s">
         <v>87</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>81</v>
       </c>
       <c r="F13" s="25" t="str">
         <f>D13</f>
-        <v>CNTW-SUP-TBA-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I13" s="17">
         <v>1</v>
@@ -1301,26 +1304,26 @@
     </row>
     <row ht="14.4" r="14" spans="2:26">
       <c r="B14" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
         <v>79</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="28" t="s">
         <v>88</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>82</v>
       </c>
       <c r="F14" s="25" t="str">
         <f ref="F14:F15" si="0" t="shared">D14</f>
-        <v>CNTW-SUP-TBA-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I14" s="17">
         <v>1</v>
@@ -1367,26 +1370,26 @@
     </row>
     <row ht="14.4" r="15" spans="2:26">
       <c r="B15" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>83</v>
       </c>
       <c r="F15" s="25" t="str">
         <f si="0" t="shared"/>
-        <v>CNTW-SUP-TBA-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I15" s="17">
         <v>1</v>
@@ -1682,21 +1685,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -1834,24 +1822,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD1BC0B-6289-4542-92AA-4CF4C1E6C5B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB53D248-350C-4EA0-9F9E-8CDF559DF7E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B5BC303-6510-46D2-B954-FA14AF930BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1867,4 +1853,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB53D248-350C-4EA0-9F9E-8CDF559DF7E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD1BC0B-6289-4542-92AA-4CF4C1E6C5B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC035/13.0 - TC35 - Contract Parts Info.xlsx
+++ b/Excel Files/Scenario 13/TC035/13.0 - TC35 - Contract Parts Info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC035\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{CD2002F6-54E3-4E2B-904C-704BE424FC7D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{171B4D46-AD99-4F2E-9FA9-3F3164E2A29C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView tabRatio="729" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView tabRatio="729" windowHeight="8880" windowWidth="22140" xWindow="-22176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1056"/>
   </bookViews>
   <sheets>
     <sheet name="Request Contract Detail" r:id="rId1" sheetId="11"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>Basic Information</t>
   </si>
@@ -285,37 +285,40 @@
     <t>R-PK-CUS-POC-S13-5-2311001</t>
   </si>
   <si>
-    <t>CNTWSUP-PKCUS-TBA-010</t>
-  </si>
-  <si>
-    <t>PK-CUS-TS1-scenario13-20230604-001</t>
-  </si>
-  <si>
-    <t>PK-CUS-TS1-scenario13-20230604-002</t>
-  </si>
-  <si>
-    <t>PK-CUS-TS1-scenario13-20230604-003</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TS1-scenario13-20230604-001</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TS1-scenario13-20230604-002</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TS1-scenario13-20230604-003</t>
-  </si>
-  <si>
-    <t>TS1scenario1320230614011</t>
-  </si>
-  <si>
-    <t>TS1scenario1320230614012</t>
-  </si>
-  <si>
-    <t>TS1scenario1320230614013</t>
-  </si>
-  <si>
     <t>CNTWSUP-PKCUS-TS1-01</t>
+  </si>
+  <si>
+    <t>PK-CUS-TS2-scenario13-20230604-001</t>
+  </si>
+  <si>
+    <t>PK-CUS-TS2-scenario13-20230604-002</t>
+  </si>
+  <si>
+    <t>PK-CUS-TS2-scenario13-20230604-003</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TS2-scenario13-20230604-001</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TS2-scenario13-20230604-002</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TS2-scenario13-20230604-003</t>
+  </si>
+  <si>
+    <t>TS2scenario1320230614011</t>
+  </si>
+  <si>
+    <t>TS2scenario1320230614012</t>
+  </si>
+  <si>
+    <t>TS2scenario1320230614013</t>
+  </si>
+  <si>
+    <t>R-PK-CUS-POC-S13-5-2311002</t>
+  </si>
+  <si>
+    <t>CNTWSUP-PKCUS-TS2-02</t>
   </si>
 </sst>
 </file>
@@ -962,7 +965,7 @@
   <sheetData>
     <row ht="14.4" r="2" spans="2:26">
       <c r="B2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="2:26">
@@ -1231,7 +1234,7 @@
         <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>84</v>
@@ -1241,13 +1244,13 @@
       </c>
       <c r="F13" s="25" t="str">
         <f>D13</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-001</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I13" s="17">
         <v>1</v>
@@ -1307,7 +1310,7 @@
         <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>85</v>
@@ -1317,13 +1320,13 @@
       </c>
       <c r="F14" s="25" t="str">
         <f ref="F14:F15" si="0" t="shared">D14</f>
-        <v>CNTW-SUP-TS1-scenario13-20230604-002</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-002</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I14" s="17">
         <v>1</v>
@@ -1373,7 +1376,7 @@
         <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D15" s="27" t="s">
         <v>86</v>
@@ -1383,13 +1386,13 @@
       </c>
       <c r="F15" s="25" t="str">
         <f si="0" t="shared"/>
-        <v>CNTW-SUP-TS1-scenario13-20230604-003</v>
+        <v>CNTW-SUP-TS2-scenario13-20230604-003</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>78</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="17">
         <v>1</v>
@@ -1685,6 +1688,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -1822,22 +1840,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD1BC0B-6289-4542-92AA-4CF4C1E6C5B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB53D248-350C-4EA0-9F9E-8CDF559DF7E5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B5BC303-6510-46D2-B954-FA14AF930BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1853,21 +1873,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB53D248-350C-4EA0-9F9E-8CDF559DF7E5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD1BC0B-6289-4542-92AA-4CF4C1E6C5B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Excel Files/Scenario 13/TC035/13.0 - TC35 - Contract Parts Info.xlsx
+++ b/Excel Files/Scenario 13/TC035/13.0 - TC35 - Contract Parts Info.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Testbit_SR\git\tb-ttap-brivge-v2\Excel Files\Scenario 13\TC035\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{171B4D46-AD99-4F2E-9FA9-3F3164E2A29C}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60E4742-7A73-4F21-873A-5226909BE8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView tabRatio="729" windowHeight="8880" windowWidth="22140" xWindow="-22176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1056"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="729" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Request Contract Detail" r:id="rId1" sheetId="11"/>
-    <sheet name="UOM_CODE" r:id="rId2" sheetId="12" state="hidden"/>
-    <sheet name="CURRENCY_CODE" r:id="rId3" sheetId="13" state="hidden"/>
+    <sheet name="Request Contract Detail" sheetId="11" r:id="rId1"/>
+    <sheet name="UOM_CODE" sheetId="12" state="hidden" r:id="rId2"/>
+    <sheet name="CURRENCY_CODE" sheetId="13" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" name="_Regression_X">#REF!</definedName>
+    <definedName name="_Regression_X" hidden="1">#REF!</definedName>
     <definedName name="CURRENCY_CODE">CURRENCY_CODE!$A$1:$A$13</definedName>
-    <definedName hidden="1" name="_xlnm.Database">#REF!</definedName>
+    <definedName name="_xlnm.Database" hidden="1">#REF!</definedName>
     <definedName name="UOM_CODE">UOM_CODE!$A$1:$A$29</definedName>
-    <definedName hidden="1" name="関連表">#REF!</definedName>
+    <definedName name="関連表" hidden="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
   <si>
     <t>Basic Information</t>
   </si>
@@ -279,46 +279,40 @@
     <t>CNY2</t>
   </si>
   <si>
-    <t>PK-CUS-POC-S13-5</t>
-  </si>
-  <si>
-    <t>R-PK-CUS-POC-S13-5-2311001</t>
-  </si>
-  <si>
-    <t>CNTWSUP-PKCUS-TS1-01</t>
-  </si>
-  <si>
-    <t>PK-CUS-TS2-scenario13-20230604-001</t>
-  </si>
-  <si>
-    <t>PK-CUS-TS2-scenario13-20230604-002</t>
-  </si>
-  <si>
-    <t>PK-CUS-TS2-scenario13-20230604-003</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TS2-scenario13-20230604-001</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TS2-scenario13-20230604-002</t>
-  </si>
-  <si>
-    <t>CNTW-SUP-TS2-scenario13-20230604-003</t>
-  </si>
-  <si>
-    <t>TS2scenario1320230614011</t>
-  </si>
-  <si>
-    <t>TS2scenario1320230614012</t>
-  </si>
-  <si>
-    <t>TS2scenario1320230614013</t>
-  </si>
-  <si>
     <t>R-PK-CUS-POC-S13-5-2311002</t>
   </si>
   <si>
     <t>CNTWSUP-PKCUS-TS2-02</t>
+  </si>
+  <si>
+    <t>PK-CUS-TS6-scenario13-20230604-001</t>
+  </si>
+  <si>
+    <t>PK-CUS-TS6-scenario13-20230604-002</t>
+  </si>
+  <si>
+    <t>PK-CUS-TS6-scenario13-20230604-003</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TS6-scenario13-20230604-001</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TS6-scenario13-20230604-002</t>
+  </si>
+  <si>
+    <t>CNTW-SUP-TS6-scenario13-20230604-003</t>
+  </si>
+  <si>
+    <t>TS6scenario1320230614011</t>
+  </si>
+  <si>
+    <t>TS6scenario1320230614012</t>
+  </si>
+  <si>
+    <t>TS6scenario1320230614013</t>
+  </si>
+  <si>
+    <t>PK-CUS-POC-S13-6</t>
   </si>
 </sst>
 </file>
@@ -520,113 +514,113 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="6" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="7" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="8" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="1" numFmtId="9" xfId="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="3" xfId="0">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="165" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="1" numFmtId="166" xfId="0">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="4" numFmtId="4" xfId="0">
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="1" numFmtId="167" xfId="0">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="2" fillId="0" fontId="1" numFmtId="168" xfId="0">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="3" fillId="9" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="10" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="10" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="10" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="10" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 6 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準 2 2" xfId="3" xr:uid="{BD94D676-61E5-40C5-9817-F6CD1A7C03D4}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFCC99FF"/>
@@ -651,10 +645,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -812,7 +806,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -821,13 +815,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -837,7 +831,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -846,7 +840,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -855,7 +849,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -865,12 +859,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -901,7 +895,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -920,7 +914,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -932,40 +926,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:Z15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="1.77734375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="45.21875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="25.77734375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="48.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="37.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="57.33203125" collapsed="true"/>
-    <col min="7" max="8" customWidth="true" style="1" width="25.77734375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="20.77734375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="25.77734375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="15.88671875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="1" width="22.0" collapsed="true"/>
-    <col min="13" max="15" customWidth="true" style="1" width="22.77734375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="1" width="12.21875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="1" width="16.88671875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="1" width="19.109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="1" width="15.88671875" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="1" width="20.77734375" collapsed="true"/>
-    <col min="21" max="25" customWidth="true" style="1" width="25.77734375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
-    <col min="27" max="16384" style="1" width="8.88671875" collapsed="true"/>
+    <col min="1" max="1" width="1.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="48.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="57.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="25.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22" style="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="15" width="22.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.21875" style="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="16.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="19.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="15.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="20.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="25" width="25.77734375" style="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="21.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row ht="14.4" r="2" spans="2:26">
+    <row r="2" spans="2:26" ht="14.4">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:26">
@@ -987,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.1" r="7" spans="2:26">
+    <row r="7" spans="2:26" ht="26.1" customHeight="1">
       <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
@@ -998,7 +992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row customHeight="1" ht="16.2" r="10" spans="2:26">
+    <row r="10" spans="2:26" ht="16.2" customHeight="1">
       <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
@@ -1229,28 +1223,28 @@
         <v>2</v>
       </c>
     </row>
-    <row ht="14.4" r="13" spans="2:26">
+    <row r="13" spans="2:26" ht="14.4">
       <c r="B13" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F13" s="25" t="str">
         <f>D13</f>
-        <v>CNTW-SUP-TS2-scenario13-20230604-001</v>
+        <v>CNTW-SUP-TS6-scenario13-20230604-001</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I13" s="17">
         <v>1</v>
@@ -1305,28 +1299,28 @@
       </c>
       <c r="Z13" s="24"/>
     </row>
-    <row ht="14.4" r="14" spans="2:26">
+    <row r="14" spans="2:26" ht="14.4">
       <c r="B14" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F14" s="25" t="str">
-        <f ref="F14:F15" si="0" t="shared">D14</f>
-        <v>CNTW-SUP-TS2-scenario13-20230604-002</v>
+        <f t="shared" ref="F14:F15" si="0">D14</f>
+        <v>CNTW-SUP-TS6-scenario13-20230604-002</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I14" s="17">
         <v>1</v>
@@ -1371,28 +1365,28 @@
       <c r="Y14" s="8"/>
       <c r="Z14" s="24"/>
     </row>
-    <row ht="14.4" r="15" spans="2:26">
+    <row r="15" spans="2:26" ht="14.4">
       <c r="B15" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>CNTW-SUP-TS6-scenario13-20230604-003</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="F15" s="25" t="str">
-        <f si="0" t="shared"/>
-        <v>CNTW-SUP-TS2-scenario13-20230604-003</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>78</v>
-      </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="I15" s="17">
         <v>1</v>
@@ -1440,18 +1434,18 @@
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="S13:S15" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="S13:S15" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>CURRENCY_CODE</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1604,13 +1598,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1683,17 +1677,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1702,7 +1690,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010097067AA9A672F346A1B58BE42AD9877C" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70311ed55a7647e60c093d812ed30f13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c3e097ef-e44a-4305-852f-ab2ffd6265ef" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2560ccc14650c91144102f2a05b91b43" ns2:_="">
     <xsd:import namespace="c3e097ef-e44a-4305-852f-ab2ffd6265ef"/>
@@ -1840,16 +1828,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD1BC0B-6289-4542-92AA-4CF4C1E6C5B8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB53D248-350C-4EA0-9F9E-8CDF559DF7E5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1857,7 +1842,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B5BC303-6510-46D2-B954-FA14AF930BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1873,4 +1858,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD1BC0B-6289-4542-92AA-4CF4C1E6C5B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>